--- a/phase_1/TOPSIS.xlsx
+++ b/phase_1/TOPSIS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Концепции</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Ранг</t>
   </si>
   <si>
-    <t>Наибольшую близость к идеальному решению и 1 приоритет имеет проект B -  Мобильное приложение для планирования личного бюджета</t>
-  </si>
-  <si>
     <t xml:space="preserve">Расстояние </t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Платформа для управления умным домом</t>
+  </si>
+  <si>
+    <t>Наибольшую близость к идеальному решению и 1 приоритет имеет проект B - Мобильная/ПК игра в жанре приключений</t>
   </si>
 </sst>
 </file>
@@ -221,19 +221,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,17 +308,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -473,13 +480,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,15 +535,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -564,13 +569,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,28 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -615,12 +620,28 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="40% — акцент2" xfId="3" builtinId="35"/>
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+  <cellStyles count="5">
+    <cellStyle name="40% — акцент2" xfId="2" builtinId="35"/>
+    <cellStyle name="40% — акцент4" xfId="3" builtinId="43"/>
+    <cellStyle name="40% — акцент6" xfId="4" builtinId="51"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1134,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1154,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1174,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,46 +1285,81 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>H3</f>
+        <v>Средний</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1327,39 +1383,77 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B22" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C22" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="D22" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,42 +1478,77 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,42 +1573,77 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f>H4</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f>H3</f>
+        <v>Средний</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f>H2</f>
+        <v>Высокий</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -1488,191 +1652,191 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45" t="s">
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45" t="s">
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45" t="s">
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="str">
+      <c r="B38" s="54" t="str">
         <f>A16</f>
         <v>Саков</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="51" t="str">
         <f>B16</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="51" t="str">
         <f>C16</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="51" t="str">
         <f>D16</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="51" t="str">
         <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="51" t="str">
         <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
+        <v>Высокий</v>
+      </c>
+      <c r="O39" s="52"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="51" t="str">
         <f>B21</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="51" t="str">
         <f>C21</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51" t="str">
         <f>D21</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="51" t="str">
         <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="51" t="str">
         <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="48"/>
-      <c r="P40" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O40" s="52"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="51" t="str">
         <f>B26</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="51" t="str">
         <f>C26</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="51" t="str">
         <f>D26</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="51" t="str">
         <f>E26</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="L41" s="52"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="51" t="str">
         <f>F26</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="51" t="str">
         <f>B31</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="51" t="str">
         <f>C31</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="51" t="str">
         <f>D31</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="51" t="str">
         <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="51" t="str">
         <f>F31</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="48"/>
-      <c r="P42" s="49"/>
+        <v>Высокий</v>
+      </c>
+      <c r="O42" s="52"/>
+      <c r="P42" s="53"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
@@ -1695,448 +1859,448 @@
       <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="55">
         <f>IF(B39="Низкий", $I$4,  IF(B39="Средний", $I$3, IF(B39="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="19">
+        <v>3</v>
+      </c>
+      <c r="C44" s="56">
         <f>IF(B39="Низкий", $J$4,  IF(B39="Средний", $J$3, IF(B39="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="20">
+        <v>5</v>
+      </c>
+      <c r="D44" s="57">
         <f>IF(B39="Низкий", $K$4,  IF(B39="Средний", $K$3, IF(B39="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="18">
+        <v>7</v>
+      </c>
+      <c r="E44" s="55">
         <f t="shared" ref="E44:N47" si="0">IF(E39="Низкий", $I$4,  IF(E39="Средний", $I$3, IF(E39="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="19">
+        <v>3</v>
+      </c>
+      <c r="F44" s="56">
         <f t="shared" ref="F44:O47" si="1">IF(E39="Низкий", $J$4,  IF(E39="Средний", $J$3, IF(E39="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="20">
+        <v>5</v>
+      </c>
+      <c r="G44" s="57">
         <f t="shared" ref="G44:G47" si="2">IF(E39="Низкий", $K$4,  IF(E39="Средний", $K$3, IF(E39="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="51">
+        <v>7</v>
+      </c>
+      <c r="H44" s="55">
         <f t="shared" ref="H44" si="3">IF(H39="Низкий", $I$4,  IF(H39="Средний", $I$3, IF(H39="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="52">
+        <v>3</v>
+      </c>
+      <c r="I44" s="56">
         <f t="shared" ref="I44" si="4">IF(H39="Низкий", $J$4,  IF(H39="Средний", $J$3, IF(H39="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="53">
+        <v>5</v>
+      </c>
+      <c r="J44" s="57">
         <f t="shared" ref="J44:J47" si="5">IF(H39="Низкий", $K$4,  IF(H39="Средний", $K$3, IF(H39="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="54">
+        <v>7</v>
+      </c>
+      <c r="K44" s="55">
         <f t="shared" ref="K44" si="6">IF(K39="Низкий", $I$4,  IF(K39="Средний", $I$3, IF(K39="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="55">
+        <v>3</v>
+      </c>
+      <c r="L44" s="56">
         <f t="shared" ref="L44" si="7">IF(K39="Низкий", $J$4,  IF(K39="Средний", $J$3, IF(K39="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="56">
+        <v>5</v>
+      </c>
+      <c r="M44" s="57">
         <f t="shared" ref="M44:M47" si="8">IF(K39="Низкий", $K$4,  IF(K39="Средний", $K$3, IF(K39="Высокий", $K$2, 0)))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N44" s="18">
         <f t="shared" ref="N44" si="9">IF(N39="Низкий", $I$4,  IF(N39="Средний", $I$3, IF(N39="Высокий", $I$2, 0)))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O44" s="19">
         <f t="shared" ref="O44" si="10">IF(N39="Низкий", $J$4,  IF(N39="Средний", $J$3, IF(N39="Высокий", $J$2, 0)))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P44" s="20">
         <f t="shared" ref="P44:P47" si="11">IF(N39="Низкий", $K$4,  IF(N39="Средний", $K$3, IF(N39="Высокий", $K$2, 0)))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="45">
         <f t="shared" ref="B45:B47" si="12">IF(B40="Низкий", $I$4,  IF(B40="Средний", $I$3, IF(B40="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="52">
+        <v>7</v>
+      </c>
+      <c r="C45" s="46">
         <f t="shared" ref="C45:C47" si="13">IF(B40="Низкий", $J$4,  IF(B40="Средний", $J$3, IF(B40="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="53">
+        <v>8</v>
+      </c>
+      <c r="D45" s="47">
         <f t="shared" ref="D45:D47" si="14">IF(B40="Низкий", $K$4,  IF(B40="Средний", $K$3, IF(B40="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="54">
+        <v>9</v>
+      </c>
+      <c r="E45" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="55">
+        <v>3</v>
+      </c>
+      <c r="F45" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="56">
+        <v>5</v>
+      </c>
+      <c r="G45" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="51">
+        <v>7</v>
+      </c>
+      <c r="H45" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="52">
+        <v>7</v>
+      </c>
+      <c r="I45" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="53">
+        <v>8</v>
+      </c>
+      <c r="J45" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="51">
+        <v>9</v>
+      </c>
+      <c r="K45" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="52">
+        <v>1</v>
+      </c>
+      <c r="L45" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="53">
+        <v>2</v>
+      </c>
+      <c r="M45" s="60">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="54">
+        <v>3</v>
+      </c>
+      <c r="N45" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="55">
+        <v>1</v>
+      </c>
+      <c r="O45" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="56">
+        <v>2</v>
+      </c>
+      <c r="P45" s="60">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="59">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="20">
+        <v>2</v>
+      </c>
+      <c r="D46" s="60">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="18">
+        <v>3</v>
+      </c>
+      <c r="E46" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="19">
+        <v>1</v>
+      </c>
+      <c r="F46" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="20">
+        <v>2</v>
+      </c>
+      <c r="G46" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="54">
+        <v>3</v>
+      </c>
+      <c r="H46" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="55">
+        <v>3</v>
+      </c>
+      <c r="I46" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="56">
+        <v>5</v>
+      </c>
+      <c r="J46" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="51">
+        <v>7</v>
+      </c>
+      <c r="K46" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="52">
+        <v>7</v>
+      </c>
+      <c r="L46" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="53">
+        <v>8</v>
+      </c>
+      <c r="M46" s="47">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="18">
+        <v>9</v>
+      </c>
+      <c r="N46" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="19">
+        <v>1</v>
+      </c>
+      <c r="O46" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="20">
+        <v>2</v>
+      </c>
+      <c r="P46" s="60">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="55">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="19">
+        <v>3</v>
+      </c>
+      <c r="C47" s="56">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="20">
+        <v>5</v>
+      </c>
+      <c r="D47" s="57">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="51">
+        <v>7</v>
+      </c>
+      <c r="E47" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="52">
+        <v>3</v>
+      </c>
+      <c r="F47" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="53">
+        <v>5</v>
+      </c>
+      <c r="G47" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="51">
+        <v>7</v>
+      </c>
+      <c r="H47" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="52">
+        <v>7</v>
+      </c>
+      <c r="I47" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="53">
+        <v>8</v>
+      </c>
+      <c r="J47" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="54">
+        <v>9</v>
+      </c>
+      <c r="K47" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="55">
+        <v>3</v>
+      </c>
+      <c r="L47" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="56">
+        <v>5</v>
+      </c>
+      <c r="M47" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="51">
+        <v>7</v>
+      </c>
+      <c r="N47" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="52">
+        <v>7</v>
+      </c>
+      <c r="O47" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="53">
+        <v>8</v>
+      </c>
+      <c r="P47" s="47">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45" t="s">
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45" t="s">
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45" t="s">
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="50" t="str">
+      <c r="B51" s="54" t="str">
         <f>A17</f>
         <v>Ефремов</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="51" t="str">
         <f>$B17</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="51" t="str">
         <f>$C17</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="51" t="str">
         <f>$D17</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="I52" s="52"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="51" t="str">
         <f>$E17</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="48"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="47">
+        <v>Средний</v>
+      </c>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="51" t="str">
         <f>$F17</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="48"/>
-      <c r="P52" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O52" s="52"/>
+      <c r="P52" s="53"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="51" t="str">
         <f>$B22</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="51" t="str">
         <f>$C22</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="51" t="str">
         <f>$D22</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="48"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="I53" s="52"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="51" t="str">
         <f>$E22</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="48"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="L53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="51" t="str">
         <f>$F22</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="48"/>
-      <c r="P53" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O53" s="52"/>
+      <c r="P53" s="53"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="51" t="str">
         <f>B27</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="51" t="str">
         <f>$C27</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="51" t="str">
         <f>$D27</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="48"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="I54" s="52"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="51" t="str">
         <f>$E27</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="48"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="51" t="str">
         <f>$F27</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="48"/>
-      <c r="P54" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O54" s="52"/>
+      <c r="P54" s="53"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="51" t="str">
         <f>$B32</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="51" t="str">
         <f>$C32</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="51" t="str">
         <f>$D32</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="48"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="47">
+        <v>Низкий</v>
+      </c>
+      <c r="I55" s="52"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="51" t="str">
         <f>$E32</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="48"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="47">
+        <v>Высокий</v>
+      </c>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="51" t="str">
         <f>$F32</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="48"/>
-      <c r="P55" s="49"/>
+        <v>Высокий</v>
+      </c>
+      <c r="O55" s="52"/>
+      <c r="P55" s="53"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -2159,130 +2323,130 @@
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="58">
         <f>IF(B52="Низкий", $I$4,  IF(B52="Средний", $I$3, IF(B52="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="59">
         <f>IF(B52="Низкий", $J$4,  IF(B52="Средний", $J$3, IF(B52="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="D57" s="60">
         <f>IF(B52="Низкий", $K$4,  IF(B52="Средний", $K$3, IF(B52="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="18">
+        <v>3</v>
+      </c>
+      <c r="E57" s="58">
         <f t="shared" ref="E57" si="15">IF(E52="Низкий", $I$4,  IF(E52="Средний", $I$3, IF(E52="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="F57" s="59">
         <f t="shared" ref="F57" si="16">IF(E52="Низкий", $J$4,  IF(E52="Средний", $J$3, IF(E52="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="20">
+        <v>2</v>
+      </c>
+      <c r="G57" s="60">
         <f t="shared" ref="G57:G60" si="17">IF(E52="Низкий", $K$4,  IF(E52="Средний", $K$3, IF(E52="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="51">
+        <v>3</v>
+      </c>
+      <c r="H57" s="45">
         <f t="shared" ref="H57" si="18">IF(H52="Низкий", $I$4,  IF(H52="Средний", $I$3, IF(H52="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="52">
+        <v>7</v>
+      </c>
+      <c r="I57" s="46">
         <f t="shared" ref="I57" si="19">IF(H52="Низкий", $J$4,  IF(H52="Средний", $J$3, IF(H52="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="53">
+        <v>8</v>
+      </c>
+      <c r="J57" s="47">
         <f t="shared" ref="J57:J60" si="20">IF(H52="Низкий", $K$4,  IF(H52="Средний", $K$3, IF(H52="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="54">
+        <v>9</v>
+      </c>
+      <c r="K57" s="55">
         <f t="shared" ref="K57" si="21">IF(K52="Низкий", $I$4,  IF(K52="Средний", $I$3, IF(K52="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="55">
+        <v>3</v>
+      </c>
+      <c r="L57" s="56">
         <f t="shared" ref="L57" si="22">IF(K52="Низкий", $J$4,  IF(K52="Средний", $J$3, IF(K52="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="56">
+        <v>5</v>
+      </c>
+      <c r="M57" s="57">
         <f t="shared" ref="M57:M60" si="23">IF(K52="Низкий", $K$4,  IF(K52="Средний", $K$3, IF(K52="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="18">
+        <v>7</v>
+      </c>
+      <c r="N57" s="58">
         <f t="shared" ref="N57" si="24">IF(N52="Низкий", $I$4,  IF(N52="Средний", $I$3, IF(N52="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="19">
+        <v>1</v>
+      </c>
+      <c r="O57" s="59">
         <f t="shared" ref="O57" si="25">IF(N52="Низкий", $J$4,  IF(N52="Средний", $J$3, IF(N52="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="20">
+        <v>2</v>
+      </c>
+      <c r="P57" s="60">
         <f t="shared" ref="P57:P60" si="26">IF(N52="Низкий", $K$4,  IF(N52="Средний", $K$3, IF(N52="Высокий", $K$2, 0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="41">
         <f t="shared" ref="B58:B60" si="27">IF(B53="Низкий", $I$4,  IF(B53="Средний", $I$3, IF(B53="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="52">
+        <v>1</v>
+      </c>
+      <c r="C58" s="42">
         <f t="shared" ref="C58:C60" si="28">IF(B53="Низкий", $J$4,  IF(B53="Средний", $J$3, IF(B53="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="53">
+        <v>2</v>
+      </c>
+      <c r="D58" s="43">
         <f t="shared" ref="D58:D60" si="29">IF(B53="Низкий", $K$4,  IF(B53="Средний", $K$3, IF(B53="Высокий", $K$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="54">
+        <v>3</v>
+      </c>
+      <c r="E58" s="58">
         <f t="shared" ref="E58" si="30">IF(E53="Низкий", $I$4,  IF(E53="Средний", $I$3, IF(E53="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="55">
+        <v>1</v>
+      </c>
+      <c r="F58" s="59">
         <f t="shared" ref="F58" si="31">IF(E53="Низкий", $J$4,  IF(E53="Средний", $J$3, IF(E53="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="56">
+        <v>2</v>
+      </c>
+      <c r="G58" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="51">
+        <v>3</v>
+      </c>
+      <c r="H58" s="58">
         <f t="shared" ref="H58" si="32">IF(H53="Низкий", $I$4,  IF(H53="Средний", $I$3, IF(H53="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="52">
+        <v>1</v>
+      </c>
+      <c r="I58" s="59">
         <f t="shared" ref="I58" si="33">IF(H53="Низкий", $J$4,  IF(H53="Средний", $J$3, IF(H53="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="53">
+        <v>2</v>
+      </c>
+      <c r="J58" s="60">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="51">
+        <v>3</v>
+      </c>
+      <c r="K58" s="45">
         <f t="shared" ref="K58" si="34">IF(K53="Низкий", $I$4,  IF(K53="Средний", $I$3, IF(K53="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="52">
+        <v>7</v>
+      </c>
+      <c r="L58" s="46">
         <f t="shared" ref="L58" si="35">IF(K53="Низкий", $J$4,  IF(K53="Средний", $J$3, IF(K53="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="53">
+        <v>8</v>
+      </c>
+      <c r="M58" s="47">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="54">
+        <v>9</v>
+      </c>
+      <c r="N58" s="58">
         <f t="shared" ref="N58" si="36">IF(N53="Низкий", $I$4,  IF(N53="Средний", $I$3, IF(N53="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="55">
+        <v>1</v>
+      </c>
+      <c r="O58" s="59">
         <f t="shared" ref="O58" si="37">IF(N53="Низкий", $J$4,  IF(N53="Средний", $J$3, IF(N53="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="56">
+        <v>2</v>
+      </c>
+      <c r="P58" s="60">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,316 +2455,316 @@
       </c>
       <c r="B59" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C59" s="19">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D59" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E59" s="18">
         <f t="shared" ref="E59" si="38">IF(E54="Низкий", $I$4,  IF(E54="Средний", $I$3, IF(E54="Высокий", $I$2, 0)))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" s="19">
         <f t="shared" ref="F59" si="39">IF(E54="Низкий", $J$4,  IF(E54="Средний", $J$3, IF(E54="Высокий", $J$2, 0)))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G59" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="54">
+        <v>9</v>
+      </c>
+      <c r="H59" s="58">
         <f t="shared" ref="H59" si="40">IF(H54="Низкий", $I$4,  IF(H54="Средний", $I$3, IF(H54="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="55">
+        <v>1</v>
+      </c>
+      <c r="I59" s="59">
         <f t="shared" ref="I59" si="41">IF(H54="Низкий", $J$4,  IF(H54="Средний", $J$3, IF(H54="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="56">
+        <v>2</v>
+      </c>
+      <c r="J59" s="60">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="51">
+        <v>3</v>
+      </c>
+      <c r="K59" s="58">
         <f t="shared" ref="K59" si="42">IF(K54="Низкий", $I$4,  IF(K54="Средний", $I$3, IF(K54="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="52">
+        <v>1</v>
+      </c>
+      <c r="L59" s="59">
         <f t="shared" ref="L59" si="43">IF(K54="Низкий", $J$4,  IF(K54="Средний", $J$3, IF(K54="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="53">
+        <v>2</v>
+      </c>
+      <c r="M59" s="60">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="18">
+        <v>3</v>
+      </c>
+      <c r="N59" s="58">
         <f t="shared" ref="N59" si="44">IF(N54="Низкий", $I$4,  IF(N54="Средний", $I$3, IF(N54="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="19">
+        <v>1</v>
+      </c>
+      <c r="O59" s="59">
         <f t="shared" ref="O59" si="45">IF(N54="Низкий", $J$4,  IF(N54="Средний", $J$3, IF(N54="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="20">
+        <v>2</v>
+      </c>
+      <c r="P59" s="60">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="58">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="59">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="20">
+        <v>2</v>
+      </c>
+      <c r="D60" s="60">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="51">
+        <v>3</v>
+      </c>
+      <c r="E60" s="45">
         <f t="shared" ref="E60" si="46">IF(E55="Низкий", $I$4,  IF(E55="Средний", $I$3, IF(E55="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="52">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <f t="shared" ref="F60" si="47">IF(E55="Низкий", $J$4,  IF(E55="Средний", $J$3, IF(E55="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="53">
+        <v>8</v>
+      </c>
+      <c r="G60" s="47">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="51">
+        <v>9</v>
+      </c>
+      <c r="H60" s="58">
         <f t="shared" ref="H60" si="48">IF(H55="Низкий", $I$4,  IF(H55="Средний", $I$3, IF(H55="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="52">
+        <v>1</v>
+      </c>
+      <c r="I60" s="59">
         <f t="shared" ref="I60" si="49">IF(H55="Низкий", $J$4,  IF(H55="Средний", $J$3, IF(H55="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="53">
+        <v>2</v>
+      </c>
+      <c r="J60" s="60">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="54">
+        <v>3</v>
+      </c>
+      <c r="K60" s="45">
         <f t="shared" ref="K60" si="50">IF(K55="Низкий", $I$4,  IF(K55="Средний", $I$3, IF(K55="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="55">
+        <v>7</v>
+      </c>
+      <c r="L60" s="46">
         <f t="shared" ref="L60" si="51">IF(K55="Низкий", $J$4,  IF(K55="Средний", $J$3, IF(K55="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="56">
+        <v>8</v>
+      </c>
+      <c r="M60" s="47">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="51">
+        <v>9</v>
+      </c>
+      <c r="N60" s="45">
         <f t="shared" ref="N60" si="52">IF(N55="Низкий", $I$4,  IF(N55="Средний", $I$3, IF(N55="Высокий", $I$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="52">
+        <v>7</v>
+      </c>
+      <c r="O60" s="46">
         <f t="shared" ref="O60" si="53">IF(N55="Низкий", $J$4,  IF(N55="Средний", $J$3, IF(N55="Высокий", $J$2, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="53">
+        <v>8</v>
+      </c>
+      <c r="P60" s="47">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45" t="s">
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45" t="s">
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45" t="s">
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45" t="s">
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="50" t="str">
+      <c r="B64" s="54" t="str">
         <f>A18</f>
         <v>Деревянко</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="47" t="str">
+      <c r="B65" s="51" t="str">
         <f>$B18</f>
+        <v>Средний</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="51" t="str">
+        <f>$C18</f>
         <v>Высокий</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="47" t="str">
-        <f>$C18</f>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="51" t="str">
+        <f>$D18</f>
         <v>Средний</v>
       </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="47" t="str">
-        <f>$D28</f>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="51" t="str">
+        <f>$E18</f>
         <v>Средний</v>
       </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="47" t="str">
-        <f>$E28</f>
-        <v>Низкий</v>
-      </c>
-      <c r="L65" s="48"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="47" t="str">
-        <f>$F28</f>
-        <v>Высокий</v>
-      </c>
-      <c r="O65" s="48"/>
-      <c r="P65" s="49"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="51" t="str">
+        <f>$F18</f>
+        <v>Средний</v>
+      </c>
+      <c r="O65" s="52"/>
+      <c r="P65" s="53"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="51" t="str">
         <f>$B23</f>
         <v>Высокий</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="47" t="str">
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="51" t="str">
         <f>$C23</f>
         <v>Низкий</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="47" t="str">
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="51" t="str">
         <f>$D23</f>
-        <v>Высокий</v>
-      </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="47" t="str">
+        <v>Средний</v>
+      </c>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="51" t="str">
         <f>$E23</f>
-        <v>Высокий</v>
-      </c>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="47" t="str">
+        <v>Средний</v>
+      </c>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="51" t="str">
         <f>$F23</f>
         <v>Низкий</v>
       </c>
-      <c r="O66" s="48"/>
-      <c r="P66" s="49"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="53"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="47" t="str">
+      <c r="B67" s="51" t="str">
         <f>$B28</f>
+        <v>Высокий</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="51" t="str">
+        <f>$C28</f>
         <v>Низкий</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="47" t="str">
-        <f>$C28</f>
-        <v>Высокий</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="47" t="str">
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="51" t="str">
         <f>$D28</f>
         <v>Средний</v>
       </c>
-      <c r="I67" s="48"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="47" t="str">
+      <c r="I67" s="52"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="51" t="str">
         <f>$E28</f>
         <v>Низкий</v>
       </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="47" t="str">
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="51" t="str">
         <f>$F28</f>
-        <v>Высокий</v>
-      </c>
-      <c r="O67" s="48"/>
-      <c r="P67" s="49"/>
+        <v>Низкий</v>
+      </c>
+      <c r="O67" s="52"/>
+      <c r="P67" s="53"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="51" t="str">
         <f>$B33</f>
+        <v>Низкий</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="51" t="str">
+        <f>$C33</f>
+        <v>Средний</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="51" t="str">
+        <f>$D33</f>
         <v>Высокий</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="47" t="str">
-        <f>$C33</f>
-        <v>Высокий</v>
-      </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="47" t="str">
-        <f>$D33</f>
-        <v>Низкий</v>
-      </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="47" t="str">
+      <c r="I68" s="52"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="51" t="str">
         <f>$E33</f>
-        <v>Низкий</v>
-      </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="47" t="str">
+        <v>Средний</v>
+      </c>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="51" t="str">
         <f>$F33</f>
         <v>Высокий</v>
       </c>
-      <c r="O68" s="48"/>
-      <c r="P68" s="49"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="53"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
@@ -2623,128 +2787,128 @@
       <c r="A70" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="55">
         <f>IF(B65="Низкий", $I$4,  IF(B65="Средний", $I$3, IF(B65="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="C70" s="19">
+        <v>3</v>
+      </c>
+      <c r="C70" s="56">
         <f>IF(B65="Низкий", $J$4,  IF(B65="Средний", $J$3, IF(B65="Высокий", $J$2, 0)))</f>
+        <v>5</v>
+      </c>
+      <c r="D70" s="57">
+        <f>IF(B65="Низкий", $K$4,  IF(B65="Средний", $K$3, IF(B65="Высокий", $K$2, 0)))</f>
+        <v>7</v>
+      </c>
+      <c r="E70" s="45">
+        <f>IF(E65="Низкий", $I$4,  IF(E65="Средний", $I$3, IF(E65="Высокий", $I$2, 0)))</f>
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
+        <f>IF(E65="Низкий", $J$4,  IF(E65="Средний", $J$3, IF(E65="Высокий", $J$2, 0)))</f>
         <v>8</v>
       </c>
-      <c r="D70" s="20">
-        <f>IF(B65="Низкий", $K$4,  IF(B65="Средний", $K$3, IF(B65="Высокий", $K$2, 0)))</f>
+      <c r="G70" s="47">
+        <f>IF(E65="Низкий", $K$4,  IF(E65="Средний", $K$3, IF(E65="Высокий", $K$2, 0)))</f>
         <v>9</v>
       </c>
-      <c r="E70" s="51">
-        <f>IF(E65="Низкий", $I$4,  IF(E65="Средний", $I$3, IF(E65="Высокий", $I$2, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="F70" s="52">
-        <f>IF(E65="Низкий", $J$4,  IF(E65="Средний", $J$3, IF(E65="Высокий", $J$2, 0)))</f>
-        <v>5</v>
-      </c>
-      <c r="G70" s="53">
-        <f>IF(E65="Низкий", $K$4,  IF(E65="Средний", $K$3, IF(E65="Высокий", $K$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="H70" s="51">
+      <c r="H70" s="45">
         <f>IF(H65="Низкий", $I$4,  IF(H65="Средний", $I$3, IF(H65="Высокий", $I$2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="I70" s="52">
+      <c r="I70" s="46">
         <f>IF(H65="Низкий", $J$4,  IF(H65="Средний", $J$3, IF(H65="Высокий", $J$2, 0)))</f>
         <v>5</v>
       </c>
-      <c r="J70" s="53">
+      <c r="J70" s="47">
         <f>IF(H65="Низкий", $K$4,  IF(H65="Средний", $K$3, IF(H65="Высокий", $K$2, 0)))</f>
         <v>7</v>
       </c>
-      <c r="K70" s="54">
+      <c r="K70" s="55">
         <f>IF(K65="Низкий", $I$4,  IF(K65="Средний", $I$3, IF(K65="Высокий", $I$2, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="L70" s="55">
+        <v>3</v>
+      </c>
+      <c r="L70" s="56">
         <f>IF(K65="Низкий", $J$4,  IF(K65="Средний", $J$3, IF(K65="Высокий", $J$2, 0)))</f>
-        <v>2</v>
-      </c>
-      <c r="M70" s="56">
+        <v>5</v>
+      </c>
+      <c r="M70" s="57">
         <f>IF(K65="Низкий", $K$4,  IF(K65="Средний", $K$3, IF(K65="Высокий", $K$2, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="N70" s="18">
+        <v>7</v>
+      </c>
+      <c r="N70" s="55">
         <f>IF(N65="Низкий", $I$4,  IF(N65="Средний", $I$3, IF(N65="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="O70" s="19">
+        <v>3</v>
+      </c>
+      <c r="O70" s="56">
         <f>IF(N65="Низкий", $J$4,  IF(N65="Средний", $J$3, IF(N65="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="P70" s="20">
+        <v>5</v>
+      </c>
+      <c r="P70" s="57">
         <f>IF(N65="Низкий", $K$4,  IF(N65="Средний", $K$3, IF(N65="Высокий", $K$2, 0)))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="57">
+      <c r="B71" s="44">
         <f>IF(B66="Низкий", $I$4,  IF(B66="Средний", $I$3, IF(B66="Высокий", $I$2, 0)))</f>
         <v>7</v>
       </c>
-      <c r="C71" s="57">
+      <c r="C71" s="44">
         <f>IF(B66="Низкий", $J$4,  IF(B66="Средний", $J$3, IF(B66="Высокий", $J$2, 0)))</f>
         <v>8</v>
       </c>
-      <c r="D71" s="57">
+      <c r="D71" s="44">
         <f>IF(B66="Низкий", $K$4,  IF(B66="Средний", $K$3, IF(B66="Высокий", $K$2, 0)))</f>
         <v>9</v>
       </c>
-      <c r="E71" s="54">
+      <c r="E71" s="58">
         <f>IF(E66="Низкий", $I$4,  IF(E66="Средний", $I$3, IF(E66="Высокий", $I$2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F71" s="59">
         <f>IF(E66="Низкий", $J$4,  IF(E66="Средний", $J$3, IF(E66="Высокий", $J$2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="G71" s="56">
+      <c r="G71" s="60">
         <f>IF(E66="Низкий", $K$4,  IF(E66="Средний", $K$3, IF(E66="Высокий", $K$2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="H71" s="58">
+      <c r="H71" s="55">
         <f>IF(H66="Низкий", $I$4,  IF(H66="Средний", $I$3, IF(H66="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="I71" s="59">
+        <v>3</v>
+      </c>
+      <c r="I71" s="56">
         <f>IF(H66="Низкий", $J$4,  IF(H66="Средний", $J$3, IF(H66="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="J71" s="60">
+        <v>5</v>
+      </c>
+      <c r="J71" s="57">
         <f>IF(H66="Низкий", $K$4,  IF(H66="Средний", $K$3, IF(H66="Высокий", $K$2, 0)))</f>
-        <v>9</v>
-      </c>
-      <c r="K71" s="58">
+        <v>7</v>
+      </c>
+      <c r="K71" s="55">
         <f>IF(K66="Низкий", $I$4,  IF(K66="Средний", $I$3, IF(K66="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="L71" s="59">
+        <v>3</v>
+      </c>
+      <c r="L71" s="56">
         <f>IF(K66="Низкий", $J$4,  IF(K66="Средний", $J$3, IF(K66="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="M71" s="60">
+        <v>5</v>
+      </c>
+      <c r="M71" s="57">
         <f>IF(K66="Низкий", $K$4,  IF(K66="Средний", $K$3, IF(K66="Высокий", $K$2, 0)))</f>
-        <v>9</v>
-      </c>
-      <c r="N71" s="54">
+        <v>7</v>
+      </c>
+      <c r="N71" s="55">
         <f>IF(N66="Низкий", $I$4,  IF(N66="Средний", $I$3, IF(N66="Высокий", $I$2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="O71" s="55">
+      <c r="O71" s="56">
         <f>IF(N66="Низкий", $J$4,  IF(N66="Средний", $J$3, IF(N66="Высокий", $J$2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="P71" s="56">
+      <c r="P71" s="57">
         <f>IF(N66="Низкий", $K$4,  IF(N66="Средний", $K$3, IF(N66="Высокий", $K$2, 0)))</f>
         <v>3</v>
       </c>
@@ -2753,128 +2917,128 @@
       <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="54">
+      <c r="B72" s="45">
         <f>IF(B67="Низкий", $I$4,  IF(B67="Средний", $I$3, IF(B67="Высокий", $I$2, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="C72" s="55">
+        <v>7</v>
+      </c>
+      <c r="C72" s="46">
         <f>IF(B67="Низкий", $J$4,  IF(B67="Средний", $J$3, IF(B67="Высокий", $J$2, 0)))</f>
+        <v>8</v>
+      </c>
+      <c r="D72" s="47">
+        <f>IF(B67="Низкий", $K$4,  IF(B67="Средний", $K$3, IF(B67="Высокий", $K$2, 0)))</f>
+        <v>9</v>
+      </c>
+      <c r="E72" s="58">
+        <f>IF(E67="Низкий", $I$4,  IF(E67="Средний", $I$3, IF(E67="Высокий", $I$2, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="F72" s="59">
+        <f>IF(E67="Низкий", $J$4,  IF(E67="Средний", $J$3, IF(E67="Высокий", $J$2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="D72" s="56">
-        <f>IF(B67="Низкий", $K$4,  IF(B67="Средний", $K$3, IF(B67="Высокий", $K$2, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="E72" s="18">
-        <f>IF(E67="Низкий", $I$4,  IF(E67="Средний", $I$3, IF(E67="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="F72" s="19">
-        <f>IF(E67="Низкий", $J$4,  IF(E67="Средний", $J$3, IF(E67="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="G72" s="20">
+      <c r="G72" s="60">
         <f>IF(E67="Низкий", $K$4,  IF(E67="Средний", $K$3, IF(E67="Высокий", $K$2, 0)))</f>
-        <v>9</v>
-      </c>
-      <c r="H72" s="51">
+        <v>3</v>
+      </c>
+      <c r="H72" s="55">
         <f>IF(H67="Низкий", $I$4,  IF(H67="Средний", $I$3, IF(H67="Высокий", $I$2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="56">
         <f>IF(H67="Низкий", $J$4,  IF(H67="Средний", $J$3, IF(H67="Высокий", $J$2, 0)))</f>
         <v>5</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="57">
         <f>IF(H67="Низкий", $K$4,  IF(H67="Средний", $K$3, IF(H67="Высокий", $K$2, 0)))</f>
         <v>7</v>
       </c>
-      <c r="K72" s="54">
+      <c r="K72" s="58">
         <f>IF(K67="Низкий", $I$4,  IF(K67="Средний", $I$3, IF(K67="Высокий", $I$2, 0)))</f>
         <v>1</v>
       </c>
-      <c r="L72" s="55">
+      <c r="L72" s="59">
         <f>IF(K67="Низкий", $J$4,  IF(K67="Средний", $J$3, IF(K67="Высокий", $J$2, 0)))</f>
         <v>2</v>
       </c>
-      <c r="M72" s="56">
+      <c r="M72" s="60">
         <f>IF(K67="Низкий", $K$4,  IF(K67="Средний", $K$3, IF(K67="Высокий", $K$2, 0)))</f>
         <v>3</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="58">
         <f>IF(N67="Низкий", $I$4,  IF(N67="Средний", $I$3, IF(N67="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="O72" s="19">
+        <v>1</v>
+      </c>
+      <c r="O72" s="59">
         <f>IF(N67="Низкий", $J$4,  IF(N67="Средний", $J$3, IF(N67="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="P72" s="20">
+        <v>2</v>
+      </c>
+      <c r="P72" s="60">
         <f>IF(N67="Низкий", $K$4,  IF(N67="Средний", $K$3, IF(N67="Высокий", $K$2, 0)))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="58">
         <f>IF(B68="Низкий", $I$4,  IF(B68="Средний", $I$3, IF(B68="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="C73" s="19">
+        <v>1</v>
+      </c>
+      <c r="C73" s="59">
         <f>IF(B68="Низкий", $J$4,  IF(B68="Средний", $J$3, IF(B68="Высокий", $J$2, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="D73" s="60">
+        <f>IF(B68="Низкий", $K$4,  IF(B68="Средний", $K$3, IF(B68="Высокий", $K$2, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="55">
+        <f>IF(E68="Низкий", $I$4,  IF(E68="Средний", $I$3, IF(E68="Высокий", $I$2, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="F73" s="56">
+        <f>IF(E68="Низкий", $J$4,  IF(E68="Средний", $J$3, IF(E68="Высокий", $J$2, 0)))</f>
+        <v>5</v>
+      </c>
+      <c r="G73" s="57">
+        <f>IF(E68="Низкий", $K$4,  IF(E68="Средний", $K$3, IF(E68="Высокий", $K$2, 0)))</f>
+        <v>7</v>
+      </c>
+      <c r="H73" s="45">
+        <f>IF(H68="Низкий", $I$4,  IF(H68="Средний", $I$3, IF(H68="Высокий", $I$2, 0)))</f>
+        <v>7</v>
+      </c>
+      <c r="I73" s="46">
+        <f>IF(H68="Низкий", $J$4,  IF(H68="Средний", $J$3, IF(H68="Высокий", $J$2, 0)))</f>
         <v>8</v>
       </c>
-      <c r="D73" s="20">
-        <f>IF(B68="Низкий", $K$4,  IF(B68="Средний", $K$3, IF(B68="Высокий", $K$2, 0)))</f>
+      <c r="J73" s="47">
+        <f>IF(H68="Низкий", $K$4,  IF(H68="Средний", $K$3, IF(H68="Высокий", $K$2, 0)))</f>
         <v>9</v>
       </c>
-      <c r="E73" s="58">
-        <f>IF(E68="Низкий", $I$4,  IF(E68="Средний", $I$3, IF(E68="Высокий", $I$2, 0)))</f>
-        <v>7</v>
-      </c>
-      <c r="F73" s="59">
-        <f>IF(E68="Низкий", $J$4,  IF(E68="Средний", $J$3, IF(E68="Высокий", $J$2, 0)))</f>
-        <v>8</v>
-      </c>
-      <c r="G73" s="60">
-        <f>IF(E68="Низкий", $K$4,  IF(E68="Средний", $K$3, IF(E68="Высокий", $K$2, 0)))</f>
-        <v>9</v>
-      </c>
-      <c r="H73" s="54">
-        <f>IF(H68="Низкий", $I$4,  IF(H68="Средний", $I$3, IF(H68="Высокий", $I$2, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I73" s="55">
-        <f>IF(H68="Низкий", $J$4,  IF(H68="Средний", $J$3, IF(H68="Высокий", $J$2, 0)))</f>
-        <v>2</v>
-      </c>
-      <c r="J73" s="56">
-        <f>IF(H68="Низкий", $K$4,  IF(H68="Средний", $K$3, IF(H68="Высокий", $K$2, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="K73" s="54">
+      <c r="K73" s="55">
         <f>IF(K68="Низкий", $I$4,  IF(K68="Средний", $I$3, IF(K68="Высокий", $I$2, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="L73" s="55">
+        <v>3</v>
+      </c>
+      <c r="L73" s="56">
         <f>IF(K68="Низкий", $J$4,  IF(K68="Средний", $J$3, IF(K68="Высокий", $J$2, 0)))</f>
-        <v>2</v>
-      </c>
-      <c r="M73" s="56">
+        <v>5</v>
+      </c>
+      <c r="M73" s="57">
         <f>IF(K68="Низкий", $K$4,  IF(K68="Средний", $K$3, IF(K68="Высокий", $K$2, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="N73" s="58">
+        <v>7</v>
+      </c>
+      <c r="N73" s="45">
         <f>IF(N68="Низкий", $I$4,  IF(N68="Средний", $I$3, IF(N68="Высокий", $I$2, 0)))</f>
         <v>7</v>
       </c>
-      <c r="O73" s="59">
+      <c r="O73" s="46">
         <f>IF(N68="Низкий", $J$4,  IF(N68="Средний", $J$3, IF(N68="Высокий", $J$2, 0)))</f>
         <v>8</v>
       </c>
-      <c r="P73" s="60">
+      <c r="P73" s="47">
         <f>IF(N68="Низкий", $K$4,  IF(N68="Средний", $K$3, IF(N68="Высокий", $K$2, 0)))</f>
         <v>9</v>
       </c>
@@ -2886,100 +3050,100 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45" t="s">
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45" t="s">
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45" t="s">
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45" t="s">
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
     </row>
     <row r="78" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="27">
-        <v>3</v>
-      </c>
-      <c r="C78" s="28">
+      <c r="B78" s="61">
+        <v>1</v>
+      </c>
+      <c r="C78" s="62">
+        <v>2</v>
+      </c>
+      <c r="D78" s="63">
+        <v>3</v>
+      </c>
+      <c r="E78" s="64">
+        <v>3</v>
+      </c>
+      <c r="F78" s="65">
         <v>5</v>
       </c>
-      <c r="D78" s="29">
-        <v>7</v>
-      </c>
-      <c r="E78" s="30">
-        <v>7</v>
-      </c>
-      <c r="F78" s="31">
+      <c r="G78" s="66">
+        <v>7</v>
+      </c>
+      <c r="H78" s="27">
+        <v>7</v>
+      </c>
+      <c r="I78" s="28">
         <v>8</v>
       </c>
-      <c r="G78" s="32">
+      <c r="J78" s="29">
         <v>9</v>
       </c>
-      <c r="H78" s="30">
-        <v>7</v>
-      </c>
-      <c r="I78" s="31">
+      <c r="K78" s="61">
+        <v>1</v>
+      </c>
+      <c r="L78" s="62">
+        <v>2</v>
+      </c>
+      <c r="M78" s="63">
+        <v>3</v>
+      </c>
+      <c r="N78" s="27">
+        <v>7</v>
+      </c>
+      <c r="O78" s="28">
         <v>8</v>
       </c>
-      <c r="J78" s="32">
+      <c r="P78" s="29">
         <v>9</v>
       </c>
-      <c r="K78" s="27">
-        <v>3</v>
-      </c>
-      <c r="L78" s="28">
-        <v>5</v>
-      </c>
-      <c r="M78" s="29">
-        <v>7</v>
-      </c>
-      <c r="N78" s="30">
-        <v>7</v>
-      </c>
-      <c r="O78" s="31">
-        <v>8</v>
-      </c>
-      <c r="P78" s="32">
-        <v>9</v>
-      </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -2987,71 +3151,71 @@
       </c>
       <c r="B80" s="18">
         <f>MIN($B44,$B57,$B70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="19">
         <f>AVERAGE($C44,$C57,$C70)</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="D80" s="20">
         <f>MAX($D44,$D57,$D70)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E80" s="13">
         <f>MIN($E44,$E57,$E70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="13">
         <f>AVERAGE($F44,$F57,$F70)</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="G80" s="14">
         <f>MAX($G44,$G57,$G70)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H80" s="19">
         <f>MIN($H44,$H57,$H70)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80" s="19">
         <f>AVERAGE($I44,$I57,$I70)</f>
-        <v>1.6666666666666667</v>
+        <v>6</v>
       </c>
       <c r="J80" s="20">
         <f>MAX($J44,$J57,$J70)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K80" s="13">
         <f>MIN($K44,$K57,$K70)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80" s="13">
         <f>AVERAGE($L44,$L57,$L70)</f>
-        <v>0.66666666666666663</v>
+        <v>5</v>
       </c>
       <c r="M80" s="14">
         <f>MAX($M44,$M57,$M70)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N80" s="13">
         <f>MIN($N44,$N57,$N70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="13">
         <f>AVERAGE($O44,$O57,$O70)</f>
-        <v>2.6666666666666665</v>
+        <v>5</v>
       </c>
       <c r="P80" s="14">
         <f>MAX($P44,$P57,$P70)</f>
         <v>9</v>
       </c>
-      <c r="R80" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
+      <c r="R80" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
     </row>
     <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -3059,11 +3223,11 @@
       </c>
       <c r="B81" s="18">
         <f>MIN($B45,$B58,$B71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="19">
         <f>AVERAGE($C45,$C58,$C71)</f>
-        <v>2.6666666666666665</v>
+        <v>6</v>
       </c>
       <c r="D81" s="20">
         <f>MAX($D45,$D58,$D71)</f>
@@ -3071,23 +3235,23 @@
       </c>
       <c r="E81" s="16">
         <f>MIN($E45,$E58,$E71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="16">
         <f>AVERAGE($F45,$F58,$F71)</f>
-        <v>0.66666666666666663</v>
+        <v>3</v>
       </c>
       <c r="G81" s="17">
         <f>MAX($G45,$G58,$G71)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H81" s="19">
         <f>MIN($H45,$H58,$H71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="19">
         <f>AVERAGE($I45,$I58,$I71)</f>
-        <v>2.6666666666666665</v>
+        <v>5</v>
       </c>
       <c r="J81" s="20">
         <f>MAX($J45,$J58,$J71)</f>
@@ -3095,11 +3259,11 @@
       </c>
       <c r="K81" s="19">
         <f>MIN($K45,$K58,$K71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="19">
         <f>AVERAGE($L45,$L58,$L71)</f>
-        <v>2.6666666666666665</v>
+        <v>5</v>
       </c>
       <c r="M81" s="20">
         <f>MAX($M45,$M58,$M71)</f>
@@ -3107,11 +3271,11 @@
       </c>
       <c r="N81" s="16">
         <f>MIN($N45,$N58,$N71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="16">
         <f>AVERAGE($O45,$O58,$O71)</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="P81" s="17">
         <f>MAX($P45,$P58,$P71)</f>
@@ -3124,23 +3288,23 @@
       </c>
       <c r="B82" s="15">
         <f>MIN($B46,$B59,$B72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="16">
         <f>AVERAGE($C46,$C59,$C72)</f>
-        <v>0.66666666666666663</v>
+        <v>6</v>
       </c>
       <c r="D82" s="17">
         <f>MAX($D46,$D59,$D72)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E82" s="19">
         <f>MIN($E46,$E59,$E72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="19">
         <f>AVERAGE($F46,$F59,$F72)</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="G82" s="20">
         <f>MAX($G46,$G59,$G72)</f>
@@ -3148,11 +3312,11 @@
       </c>
       <c r="H82" s="13">
         <f>MIN($H46,$H59,$H72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="13">
         <f>AVERAGE($I46,$I59,$I72)</f>
-        <v>1.6666666666666667</v>
+        <v>4</v>
       </c>
       <c r="J82" s="14">
         <f>MAX($J46,$J59,$J72)</f>
@@ -3160,27 +3324,27 @@
       </c>
       <c r="K82" s="16">
         <f>MIN($K46,$K59,$K72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="16">
         <f>AVERAGE($L46,$L59,$L72)</f>
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M82" s="17">
         <f>MAX($M46,$M59,$M72)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N82" s="19">
         <f>MIN($N46,$N59,$N72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="19">
         <f>AVERAGE($O46,$O59,$O72)</f>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="P82" s="20">
         <f>MAX($P46,$P59,$P72)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3189,23 +3353,23 @@
       </c>
       <c r="B83" s="18">
         <f>MIN($B47,$B60,$B73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="19">
         <f>AVERAGE($C47,$C60,$C73)</f>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="D83" s="20">
         <f>MAX($D47,$D60,$D73)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" s="19">
         <f>MIN($E47,$E60,$E73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83" s="19">
         <f>AVERAGE($F47,$F60,$F73)</f>
-        <v>2.6666666666666665</v>
+        <v>6</v>
       </c>
       <c r="G83" s="20">
         <f>MAX($G47,$G60,$G73)</f>
@@ -3213,35 +3377,35 @@
       </c>
       <c r="H83" s="16">
         <f>MIN($H47,$H60,$H73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="16">
         <f>AVERAGE($I47,$I60,$I73)</f>
-        <v>0.66666666666666663</v>
+        <v>6</v>
       </c>
       <c r="J83" s="17">
         <f>MAX($J47,$J60,$J73)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K83" s="16">
         <f>MIN($K47,$K60,$K73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L83" s="16">
         <f>AVERAGE($L47,$L60,$L73)</f>
-        <v>0.66666666666666663</v>
+        <v>6</v>
       </c>
       <c r="M83" s="17">
         <f>MAX($M47,$M60,$M73)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N83" s="19">
         <f>MIN($N47,$N60,$N73)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O83" s="19">
         <f>AVERAGE($O47,$O60,$O73)</f>
-        <v>2.6666666666666665</v>
+        <v>8</v>
       </c>
       <c r="P83" s="20">
         <f>MAX($P47,$P60,$P73)</f>
@@ -3250,127 +3414,127 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45" t="s">
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45" t="s">
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45" t="s">
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45" t="s">
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45" t="s">
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45" t="s">
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45" t="s">
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45" t="s">
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="27">
-        <v>3</v>
-      </c>
-      <c r="C88" s="28">
+      <c r="B88" s="61">
+        <v>1</v>
+      </c>
+      <c r="C88" s="62">
+        <v>2</v>
+      </c>
+      <c r="D88" s="63">
+        <v>3</v>
+      </c>
+      <c r="E88" s="64">
+        <v>3</v>
+      </c>
+      <c r="F88" s="65">
         <v>5</v>
       </c>
-      <c r="D88" s="29">
-        <v>7</v>
-      </c>
-      <c r="E88" s="30">
-        <v>7</v>
-      </c>
-      <c r="F88" s="31">
+      <c r="G88" s="66">
+        <v>7</v>
+      </c>
+      <c r="H88" s="27">
+        <v>7</v>
+      </c>
+      <c r="I88" s="28">
         <v>8</v>
       </c>
-      <c r="G88" s="32">
+      <c r="J88" s="29">
         <v>9</v>
       </c>
-      <c r="H88" s="30">
-        <v>7</v>
-      </c>
-      <c r="I88" s="31">
+      <c r="K88" s="61">
+        <v>1</v>
+      </c>
+      <c r="L88" s="62">
+        <v>2</v>
+      </c>
+      <c r="M88" s="63">
+        <v>3</v>
+      </c>
+      <c r="N88" s="27">
+        <v>7</v>
+      </c>
+      <c r="O88" s="28">
         <v>8</v>
       </c>
-      <c r="J88" s="32">
+      <c r="P88" s="29">
         <v>9</v>
       </c>
-      <c r="K88" s="27">
-        <v>3</v>
-      </c>
-      <c r="L88" s="28">
-        <v>5</v>
-      </c>
-      <c r="M88" s="29">
-        <v>7</v>
-      </c>
-      <c r="N88" s="30">
-        <v>7</v>
-      </c>
-      <c r="O88" s="31">
-        <v>8</v>
-      </c>
-      <c r="P88" s="32">
-        <v>9</v>
-      </c>
     </row>
     <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -3378,63 +3542,63 @@
       </c>
       <c r="B90" s="18">
         <f>MIN($B$80:$B$83)/$D80</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C90" s="19">
         <f>MIN($B$80:$B$83)/$C80</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="20" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="D90" s="20">
         <f>MIN($B$80:$B$83)/$B80</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E90" s="12">
         <f>MIN($E$80:$E$83)/$G80</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F90" s="13">
         <f>MIN($E$80:$E$83)/$F80</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="14" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="G90" s="14">
         <f>MIN($E$80:$E$83)/$E80</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H90" s="18">
         <f>$H80/MAX($J$80:$J$83)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I90" s="19">
         <f>$I80/MAX($J$80:$J$83)</f>
-        <v>0.1851851851851852</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J90" s="20">
         <f>$J80/MAX($J$80:$J$83)</f>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="K90" s="12">
         <f>$K80/MAX($M$80:$M$83)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L90" s="13">
         <f>$L80/MAX($M$80:$M$83)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M90" s="14">
         <f>$M80/MAX($M$80:$M$83)</f>
-        <v>0.33333333333333331</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N90" s="12">
         <f>MIN($N$80:$N$83)/$P80</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O90" s="13">
         <f>MIN($N$80:$N$83)/$O80</f>
-        <v>0</v>
-      </c>
-      <c r="P90" s="14" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="P90" s="14">
         <f>MIN($N$80:$N$83)/$N80</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3443,35 +3607,35 @@
       </c>
       <c r="B91" s="18">
         <f>MIN($B$80:$B$83)/$D81</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91" s="19">
         <f>MIN($B$80:$B$83)/$C81</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="20" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D91" s="20">
         <f>MIN($B$80:$B$83)/$B81</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E91" s="15">
         <f>MIN($E$80:$E$83)/$G81</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F91" s="16">
         <f>MIN($E$80:$E$83)/$F81</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="17" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G91" s="17">
         <f>MIN($E$80:$E$83)/$E81</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H91" s="18">
         <f>$H81/MAX($J$80:$J$83)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I91" s="19">
         <f>$I81/MAX($J$80:$J$83)</f>
-        <v>0.29629629629629628</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="J91" s="20">
         <f>$J81/MAX($J$80:$J$83)</f>
@@ -3479,11 +3643,11 @@
       </c>
       <c r="K91" s="18">
         <f>$K81/MAX($M$80:$M$83)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L91" s="19">
         <f t="shared" ref="L91:L93" si="54">$L81/MAX($M$80:$M$83)</f>
-        <v>0.29629629629629628</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M91" s="20">
         <f t="shared" ref="M91:M93" si="55">$M81/MAX($M$80:$M$83)</f>
@@ -3491,15 +3655,15 @@
       </c>
       <c r="N91" s="15">
         <f t="shared" ref="N91:N93" si="56">MIN($N$80:$N$83)/$P81</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O91" s="16">
         <f t="shared" ref="O91:O93" si="57">MIN($N$80:$N$83)/$O81</f>
-        <v>0</v>
-      </c>
-      <c r="P91" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P91" s="17">
         <f t="shared" ref="P91:P93" si="58">MIN($N$80:$N$83)/$N81</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3508,35 +3672,35 @@
       </c>
       <c r="B92" s="15">
         <f>MIN($B$80:$B$83)/$D82</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92" s="16">
         <f>MIN($B$80:$B$83)/$C82</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="17" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D92" s="17">
         <f>MIN($B$80:$B$83)/$B82</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E92" s="18">
         <f>MIN($E$80:$E$83)/$G82</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F92" s="19">
         <f>MIN($E$80:$E$83)/$F82</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="20" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="G92" s="20">
         <f>MIN($E$80:$E$83)/$E82</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H92" s="12">
         <f>$H82/MAX($J$80:$J$83)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I92" s="13">
         <f>$I82/MAX($J$80:$J$83)</f>
-        <v>0.1851851851851852</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="J92" s="14">
         <f>$J82/MAX($J$80:$J$83)</f>
@@ -3544,32 +3708,32 @@
       </c>
       <c r="K92" s="15">
         <f>$K82/MAX($M$80:$M$83)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L92" s="16">
         <f t="shared" si="54"/>
-        <v>7.407407407407407E-2</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M92" s="17">
         <f t="shared" si="55"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="N92" s="18">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O92" s="19">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="20" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P92" s="20">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R92" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="S92" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="R92" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S92" s="40"/>
     </row>
     <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -3577,63 +3741,63 @@
       </c>
       <c r="B93" s="18">
         <f>MIN($B$80:$B$83)/$D83</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C93" s="19">
         <f>MIN($B$80:$B$83)/$C83</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="20" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D93" s="20">
         <f>MIN($B$80:$B$83)/$B83</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E93" s="18">
         <f>MIN($E$80:$E$83)/$G83</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F93" s="19">
         <f>MIN($E$80:$E$83)/$F83</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="20" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G93" s="20">
         <f>MIN($E$80:$E$83)/$E83</f>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H93" s="15">
         <f>$H83/MAX($J$80:$J$83)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I93" s="16">
         <f>$I83/MAX($J$80:$J$83)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J93" s="17">
         <f>$J83/MAX($J$80:$J$83)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K93" s="15">
         <f>$K83/MAX($M$80:$M$83)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L93" s="16">
         <f t="shared" si="54"/>
-        <v>7.407407407407407E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M93" s="17">
         <f t="shared" si="55"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="N93" s="18">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O93" s="19">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="20" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="P93" s="20">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -3644,127 +3808,127 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45" t="s">
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45" t="s">
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45" t="s">
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="45"/>
-      <c r="M97" s="45"/>
-      <c r="N97" s="45" t="s">
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
     </row>
     <row r="98" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45" t="s">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45" t="s">
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45" t="s">
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L98" s="45"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45" t="s">
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
     </row>
     <row r="99" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="27">
-        <v>3</v>
-      </c>
-      <c r="C99" s="28">
+      <c r="B99" s="61">
+        <v>1</v>
+      </c>
+      <c r="C99" s="62">
+        <v>2</v>
+      </c>
+      <c r="D99" s="63">
+        <v>3</v>
+      </c>
+      <c r="E99" s="64">
+        <v>3</v>
+      </c>
+      <c r="F99" s="65">
         <v>5</v>
       </c>
-      <c r="D99" s="29">
-        <v>7</v>
-      </c>
-      <c r="E99" s="30">
-        <v>7</v>
-      </c>
-      <c r="F99" s="31">
+      <c r="G99" s="66">
+        <v>7</v>
+      </c>
+      <c r="H99" s="27">
+        <v>7</v>
+      </c>
+      <c r="I99" s="28">
         <v>8</v>
       </c>
-      <c r="G99" s="32">
+      <c r="J99" s="29">
         <v>9</v>
       </c>
-      <c r="H99" s="30">
-        <v>7</v>
-      </c>
-      <c r="I99" s="31">
+      <c r="K99" s="61">
+        <v>1</v>
+      </c>
+      <c r="L99" s="62">
+        <v>2</v>
+      </c>
+      <c r="M99" s="63">
+        <v>3</v>
+      </c>
+      <c r="N99" s="27">
+        <v>7</v>
+      </c>
+      <c r="O99" s="28">
         <v>8</v>
       </c>
-      <c r="J99" s="32">
+      <c r="P99" s="29">
         <v>9</v>
       </c>
-      <c r="K99" s="27">
-        <v>3</v>
-      </c>
-      <c r="L99" s="28">
-        <v>5</v>
-      </c>
-      <c r="M99" s="29">
-        <v>7</v>
-      </c>
-      <c r="N99" s="30">
-        <v>7</v>
-      </c>
-      <c r="O99" s="31">
-        <v>8</v>
-      </c>
-      <c r="P99" s="32">
-        <v>9</v>
-      </c>
     </row>
     <row r="100" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="48"/>
+      <c r="P100" s="48"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3772,63 +3936,63 @@
       </c>
       <c r="B101" s="18">
         <f>$B90*$B$88</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C101" s="19">
         <f>$C90*$C$88</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="20" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="20">
         <f>$D90*$D$88</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="E101" s="12">
         <f>$E90*$E$88</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F101" s="13">
         <f>$F90*$F$88</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="14" t="e">
+        <v>1</v>
+      </c>
+      <c r="G101" s="14">
         <f>$G90*$G$88</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="H101" s="18">
         <f>$H90*$H$88</f>
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I101" s="19">
         <f>$I90*$I$88</f>
-        <v>1.4814814814814816</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J101" s="20">
         <f>$J90*$J$88</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K101" s="12">
         <f>$K90*$K$88</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L101" s="13">
         <f>$L90*$L$88</f>
-        <v>0.37037037037037035</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="M101" s="14">
         <f>$M90*$M$88</f>
-        <v>2.333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N101" s="12">
         <f>$N90*$N$88</f>
-        <v>0</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="O101" s="13">
         <f>$O90*$O$88</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="14" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="P101" s="14">
         <f>$P90*$P$88</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3837,35 +4001,35 @@
       </c>
       <c r="B102" s="18">
         <f t="shared" ref="B102:B104" si="59">$B91*$B$88</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C102" s="19">
         <f t="shared" ref="C102:C104" si="60">$C91*$C$88</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="20" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D102" s="20">
         <f t="shared" ref="D102:D104" si="61">$D91*$D$88</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="E102" s="15">
         <f t="shared" ref="E102:E104" si="62">$E91*$E$88</f>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F102" s="16">
         <f t="shared" ref="F102:F104" si="63">$F91*$F$88</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="17" t="e">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G102" s="17">
         <f t="shared" ref="G102:G104" si="64">$G91*$G$88</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="H102" s="18">
         <f t="shared" ref="H102:H104" si="65">$H91*$H$88</f>
-        <v>0</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="I102" s="19">
         <f t="shared" ref="I102:I104" si="66">$I91*$I$88</f>
-        <v>2.3703703703703702</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="J102" s="20">
         <f t="shared" ref="J102:J104" si="67">$J91*$J$88</f>
@@ -3873,27 +4037,27 @@
       </c>
       <c r="K102" s="18">
         <f t="shared" ref="K102:K104" si="68">$K91*$K$88</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L102" s="19">
         <f t="shared" ref="L102:L104" si="69">$L91*$L$88</f>
-        <v>1.4814814814814814</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="M102" s="20">
         <f t="shared" ref="M102:M104" si="70">$M91*$M$88</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N102" s="15">
         <f t="shared" ref="N102:N104" si="71">$N91*$N$88</f>
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O102" s="16">
         <f t="shared" ref="O102:O104" si="72">$O91*$O$88</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="P102" s="17">
         <f t="shared" ref="P102:P104" si="73">$P91*$P$88</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3902,35 +4066,35 @@
       </c>
       <c r="B103" s="15">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C103" s="16">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="17" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D103" s="17">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="E103" s="18">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F103" s="19">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="20" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="G103" s="20">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="H103" s="12">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="I103" s="13">
         <f t="shared" si="66"/>
-        <v>1.4814814814814816</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="J103" s="14">
         <f t="shared" si="67"/>
@@ -3938,27 +4102,27 @@
       </c>
       <c r="K103" s="15">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L103" s="16">
         <f t="shared" si="69"/>
-        <v>0.37037037037037035</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M103" s="17">
         <f t="shared" si="70"/>
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="N103" s="18">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O103" s="19">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="P103" s="20" t="e">
+        <v>4</v>
+      </c>
+      <c r="P103" s="20">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3967,200 +4131,200 @@
       </c>
       <c r="B104" s="18">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C104" s="19">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="20" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D104" s="20">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="E104" s="18">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F104" s="19">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="20" t="e">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G104" s="20">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H104" s="15">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="I104" s="16">
         <f t="shared" si="66"/>
-        <v>0.59259259259259256</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J104" s="17">
         <f t="shared" si="67"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K104" s="15">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L104" s="16">
         <f t="shared" si="69"/>
-        <v>0.37037037037037035</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M104" s="17">
         <f t="shared" si="70"/>
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="N104" s="18">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="O104" s="19">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="P104" s="20" t="e">
+        <v>1</v>
+      </c>
+      <c r="P104" s="20">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R104" s="43" t="s">
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="R104" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="S104" s="43"/>
-      <c r="T104" s="43"/>
-      <c r="U104" s="43"/>
-      <c r="V104" s="43"/>
+      <c r="S104" s="40"/>
+      <c r="T104" s="40"/>
+      <c r="U104" s="40"/>
+      <c r="V104" s="40"/>
     </row>
     <row r="105" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="30">
         <f>MAX(B$101:B$104)</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="34">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C105" s="31">
         <f t="shared" ref="C105:P105" si="74">MAX(C$101:C$104)</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="35" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D105" s="32">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E105" s="33">
+        <v>3</v>
+      </c>
+      <c r="E105" s="30">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="34">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F105" s="31">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="35" t="e">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G105" s="32">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105" s="33">
+        <v>7</v>
+      </c>
+      <c r="H105" s="30">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="34">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I105" s="31">
         <f t="shared" si="74"/>
-        <v>2.3703703703703702</v>
-      </c>
-      <c r="J105" s="35">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="J105" s="32">
         <f t="shared" si="74"/>
         <v>9</v>
       </c>
-      <c r="K105" s="33">
+      <c r="K105" s="30">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L105" s="31">
         <f t="shared" si="74"/>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="M105" s="35">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M105" s="32">
         <f t="shared" si="74"/>
-        <v>7</v>
-      </c>
-      <c r="N105" s="33">
+        <v>3</v>
+      </c>
+      <c r="N105" s="30">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="O105" s="34">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O105" s="31">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="P105" s="35" t="e">
+        <v>4</v>
+      </c>
+      <c r="P105" s="32">
         <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="30">
         <f>MIN(B101:B105)</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="34">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C106" s="31">
         <f t="shared" ref="C106:P106" si="75">MIN(C101:C105)</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="35" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D106" s="32">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="33">
+        <v>3</v>
+      </c>
+      <c r="E106" s="30">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F106" s="31">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="35" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="33">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="34">
-        <f t="shared" si="75"/>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="J106" s="35">
-        <f t="shared" si="75"/>
-        <v>3</v>
-      </c>
-      <c r="K106" s="33">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="L106" s="34">
-        <f t="shared" si="75"/>
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="M106" s="35">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G106" s="32">
         <f t="shared" si="75"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="N106" s="33">
+      <c r="H106" s="30">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="O106" s="34">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="I106" s="31">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P106" s="35" t="e">
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="J106" s="32">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="K106" s="30">
+        <f t="shared" si="75"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L106" s="31">
+        <f t="shared" si="75"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M106" s="32">
+        <f t="shared" si="75"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N106" s="30">
+        <f t="shared" si="75"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="O106" s="31">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="32">
+        <f t="shared" si="75"/>
+        <v>1.2857142857142856</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -4173,12 +4337,12 @@
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
-      <c r="R109" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="S109" s="43"/>
-      <c r="T109" s="43"/>
-      <c r="U109" s="43"/>
+      <c r="R109" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="S109" s="40"/>
+      <c r="T109" s="40"/>
+      <c r="U109" s="40"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
@@ -4194,142 +4358,142 @@
       <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B112" s="37">
-        <v>1</v>
-      </c>
-      <c r="C112" s="37">
+      <c r="B112" s="34">
+        <v>1</v>
+      </c>
+      <c r="C112" s="34">
         <v>2</v>
       </c>
-      <c r="D112" s="37">
-        <v>3</v>
-      </c>
-      <c r="E112" s="37">
+      <c r="D112" s="34">
+        <v>3</v>
+      </c>
+      <c r="E112" s="34">
         <v>4</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="34">
         <v>5</v>
       </c>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I112" s="43" t="s">
-        <v>47</v>
+      <c r="I112" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="37" t="e">
+      <c r="B113" s="34">
         <f>SQRT((1/3)*((($B101-$B$105)^2)+(($C101-$C$105)^2)+(($D101-$D$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C113" s="37" t="e">
+        <v>9.6225044864937603E-2</v>
+      </c>
+      <c r="C113" s="34">
         <f>SQRT((1/3)*((($E101-$E$105)^2)+(($F101-$F$105)^2)+(($G101-$G$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D113" s="37">
+        <v>0.38880789567986945</v>
+      </c>
+      <c r="D113" s="34">
         <f>SQRT((1/3)*((($H101-$H$105)^2)+(($I101-$I$105)^2)+(($J101-$J$105)^2)))</f>
-        <v>1.2636090451282949</v>
-      </c>
-      <c r="E113" s="37">
+        <v>0</v>
+      </c>
+      <c r="E113" s="34">
         <f>SQRT((1/3)*((($K101-$K$105)^2)+(($L101-$L$105)^2)+(($M101-$M$105)^2)))</f>
-        <v>2.7696176438281359</v>
-      </c>
-      <c r="F113" s="37" t="e">
+        <v>0.40572041296678962</v>
+      </c>
+      <c r="F113" s="34">
         <f>SQRT((1/3)*((($N101-$N$105)^2)+(($O101-$O$105)^2)+(($P101-$P$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="37" t="e">
+        <v>1.6512372216431888</v>
+      </c>
+      <c r="G113" s="34">
         <f>SUM(B113:F113)</f>
-        <v>#DIV/0!</v>
+        <v>2.5419905751547853</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="37" t="e">
+      <c r="A114" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="34">
         <f t="shared" ref="B114:B116" si="76">SQRT((1/3)*((($B102-$B$105)^2)+(($C102-$C$105)^2)+(($D102-$D$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C114" s="37" t="e">
+        <v>0.19332090906291122</v>
+      </c>
+      <c r="C114" s="34">
         <f t="shared" ref="C114:C116" si="77">SQRT((1/3)*((($E102-$E$105)^2)+(($F102-$F$105)^2)+(($G102-$G$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D114" s="37">
+        <v>0</v>
+      </c>
+      <c r="D114" s="34">
         <f t="shared" ref="D114:D116" si="78">SQRT((1/3)*((($H102-$H$105)^2)+(($I102-$I$105)^2)+(($J102-$J$105)^2)))</f>
+        <v>1.0343881513902917</v>
+      </c>
+      <c r="E114" s="34">
+        <f t="shared" ref="E114:E116" si="79">SQRT((1/3)*((($K102-$K$105)^2)+(($L102-$L$105)^2)+(($M102-$M$105)^2)))</f>
+        <v>0.18144368465060573</v>
+      </c>
+      <c r="F114" s="34">
+        <f t="shared" ref="F114:F116" si="80">SQRT((1/3)*((($N102-$N$105)^2)+(($O102-$O$105)^2)+(($P102-$P$105)^2)))</f>
         <v>0</v>
       </c>
-      <c r="E114" s="37">
-        <f t="shared" ref="E114:E116" si="79">SQRT((1/3)*((($K102-$K$105)^2)+(($L102-$L$105)^2)+(($M102-$M$105)^2)))</f>
+      <c r="G114" s="34">
+        <f t="shared" ref="G114:G116" si="81">SUM(B114:F114)</f>
+        <v>1.4091527451038086</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="34">
+        <f t="shared" si="76"/>
+        <v>0.19332090906291122</v>
+      </c>
+      <c r="C115" s="34">
+        <f t="shared" si="77"/>
+        <v>0.24676669541336102</v>
+      </c>
+      <c r="D115" s="34">
+        <f t="shared" si="78"/>
+        <v>1.7870130491577507</v>
+      </c>
+      <c r="E115" s="34">
+        <f t="shared" si="79"/>
+        <v>0.28688765527462345</v>
+      </c>
+      <c r="F115" s="34">
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="F114" s="37" t="e">
-        <f t="shared" ref="F114:F116" si="80">SQRT((1/3)*((($N102-$N$105)^2)+(($O102-$O$105)^2)+(($P102-$P$105)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="37" t="e">
-        <f t="shared" ref="G114:G116" si="81">SUM(B114:F114)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="37" t="e">
+      <c r="G115" s="34">
+        <f t="shared" si="81"/>
+        <v>2.5139883089086466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="34">
         <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C115" s="37" t="e">
+        <v>0</v>
+      </c>
+      <c r="C116" s="34">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D115" s="37">
+        <v>2.7374740496186631</v>
+      </c>
+      <c r="D116" s="34">
         <f t="shared" si="78"/>
-        <v>1.2636090451282949</v>
-      </c>
-      <c r="E115" s="37">
+        <v>0.89810041873941771</v>
+      </c>
+      <c r="E116" s="34">
         <f t="shared" si="79"/>
-        <v>2.7696176438281359</v>
-      </c>
-      <c r="F115" s="37" t="e">
+        <v>0</v>
+      </c>
+      <c r="F116" s="34">
         <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="37" t="e">
+        <v>4.862439619781151</v>
+      </c>
+      <c r="G116" s="34">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="37" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C116" s="37" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D116" s="37">
-        <f t="shared" si="78"/>
-        <v>3.6129624883725033</v>
-      </c>
-      <c r="E116" s="37">
-        <f t="shared" si="79"/>
-        <v>2.7696176438281359</v>
-      </c>
-      <c r="F116" s="37" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="37" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
+        <v>8.4980140881392323</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,139 +4505,139 @@
       <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="37">
-        <v>1</v>
-      </c>
-      <c r="C119" s="37">
+      <c r="B119" s="34">
+        <v>1</v>
+      </c>
+      <c r="C119" s="34">
         <v>2</v>
       </c>
-      <c r="D119" s="37">
-        <v>3</v>
-      </c>
-      <c r="E119" s="37">
+      <c r="D119" s="34">
+        <v>3</v>
+      </c>
+      <c r="E119" s="34">
         <v>4</v>
       </c>
-      <c r="F119" s="37">
+      <c r="F119" s="34">
         <v>5</v>
       </c>
-      <c r="G119" s="39" t="s">
+      <c r="G119" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="37" t="e">
+      <c r="B120" s="34">
         <f>SQRT((1/3)*((($B101-$B$106)^2)+(($C101-$C$106)^2)+(($D101-$D$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C120" s="37" t="e">
+        <v>9.7955071860177878E-2</v>
+      </c>
+      <c r="C120" s="34">
         <f>SQRT((1/3)*((($E101-$E$106)^2)+(($F101-$F$106)^2)+(($G101-$G$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D120" s="37">
+        <v>2.696019013011318</v>
+      </c>
+      <c r="D120" s="34">
         <f>SQRT((1/3)*((($H101-$H$106)^2)+(($I101-$I$106)^2)+(($J101-$J$106)^2)))</f>
-        <v>2.3657362107661202</v>
-      </c>
-      <c r="E120" s="37">
+        <v>1.7870130491577507</v>
+      </c>
+      <c r="E120" s="34">
         <f>SQRT((1/3)*((($K101-$K$106)^2)+(($L101-$L$106)^2)+(($M101-$M$106)^2)))</f>
+        <v>0.18144368465060584</v>
+      </c>
+      <c r="F120" s="34">
+        <f>SQRT((1/3)*((($N101-$N$106)^2)+(($O101-$O$106)^2)+(($P101-$P$106)^2)))</f>
+        <v>4.4672961278470842</v>
+      </c>
+      <c r="G120" s="34">
+        <f>SUM(B120:F120)</f>
+        <v>9.229726946526938</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="34">
+        <f t="shared" ref="B121:B123" si="82">SQRT((1/3)*((($B102-$B$106)^2)+(($C102-$C$106)^2)+(($D102-$D$106)^2)))</f>
         <v>0</v>
       </c>
-      <c r="F120" s="37" t="e">
-        <f>SQRT((1/3)*((($N101-$N$106)^2)+(($O101-$O$106)^2)+(($P101-$P$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="37" t="e">
-        <f>SUM(B120:F120)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="37" t="e">
-        <f t="shared" ref="B121:B123" si="82">SQRT((1/3)*((($B102-$B$106)^2)+(($C102-$C$106)^2)+(($D102-$D$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C121" s="37" t="e">
+      <c r="C121" s="34">
         <f t="shared" ref="C121:C123" si="83">SQRT((1/3)*((($E102-$E$106)^2)+(($F102-$F$106)^2)+(($G102-$G$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D121" s="37">
+        <v>2.7374740496186631</v>
+      </c>
+      <c r="D121" s="34">
         <f t="shared" ref="D121:D123" si="84">SQRT((1/3)*((($H102-$H$106)^2)+(($I102-$I$106)^2)+(($J102-$J$106)^2)))</f>
-        <v>3.6129624883725033</v>
-      </c>
-      <c r="E121" s="37">
+        <v>1.2636090451282951</v>
+      </c>
+      <c r="E121" s="34">
         <f t="shared" ref="E121:E123" si="85">SQRT((1/3)*((($K102-$K$106)^2)+(($L102-$L$106)^2)+(($M102-$M$106)^2)))</f>
-        <v>2.7696176438281359</v>
-      </c>
-      <c r="F121" s="37" t="e">
+        <v>0.40572041296678962</v>
+      </c>
+      <c r="F121" s="34">
         <f t="shared" ref="F121:F123" si="86">SQRT((1/3)*((($N102-$N$106)^2)+(($O102-$O$106)^2)+(($P102-$P$106)^2)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" s="37" t="e">
+        <v>4.862439619781151</v>
+      </c>
+      <c r="G121" s="34">
         <f t="shared" ref="G121:G123" si="87">SUM(B121:F121)</f>
-        <v>#DIV/0!</v>
+        <v>9.2692431274948994</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="37" t="e">
+      <c r="B122" s="34">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C122" s="37" t="e">
+        <v>0</v>
+      </c>
+      <c r="C122" s="34">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D122" s="37">
-        <f t="shared" si="84"/>
-        <v>2.3657362107661202</v>
-      </c>
-      <c r="E122" s="37">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="37" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G122" s="37" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="37" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C123" s="37" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D123" s="37">
+        <v>2.7050193399733078</v>
+      </c>
+      <c r="D122" s="34">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="E123" s="37">
+      <c r="E122" s="34">
         <f t="shared" si="85"/>
+        <v>0.38490017945975041</v>
+      </c>
+      <c r="F122" s="34">
+        <f t="shared" si="86"/>
+        <v>4.862439619781151</v>
+      </c>
+      <c r="G122" s="34">
+        <f t="shared" si="87"/>
+        <v>7.9523591392142094</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="34">
+        <f t="shared" si="82"/>
+        <v>0.19332090906291122</v>
+      </c>
+      <c r="C123" s="34">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="F123" s="37" t="e">
+      <c r="D123" s="34">
+        <f t="shared" si="84"/>
+        <v>1.5449373047862378</v>
+      </c>
+      <c r="E123" s="34">
+        <f t="shared" si="85"/>
+        <v>0.48005486654873025</v>
+      </c>
+      <c r="F123" s="34">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G123" s="37" t="e">
+        <v>0</v>
+      </c>
+      <c r="G123" s="34">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>2.2183130803978792</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,69 +4650,69 @@
       <c r="E125" s="22"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="e">
+      <c r="A127">
         <f>G120/(G120+G113)</f>
-        <v>#DIV/0!</v>
+        <v>0.78405949934894181</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="e">
+      <c r="A128">
         <f t="shared" ref="A128:A130" si="88">G121/(G121+G114)</f>
-        <v>#DIV/0!</v>
+        <v>0.86803703834208246</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="e">
+      <c r="A129">
         <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
+        <v>0.75980270850271336</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="e">
+      <c r="A130">
         <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
+        <v>0.20700311268125474</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
